--- a/tabular/ehbv-side-data.xlsx
+++ b/tabular/ehbv-side-data.xlsx
@@ -7164,8 +7164,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7282,7 +7284,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7334,6 +7336,7 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7385,6 +7388,7 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7717,7 +7721,7 @@
   <dimension ref="A1:V901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:V901"/>
+      <selection activeCell="D26" sqref="A1:V901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/tabular/ehbv-side-data.xlsx
+++ b/tabular/ehbv-side-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16086" uniqueCount="2342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16086" uniqueCount="2343">
   <si>
     <t>organism</t>
   </si>
@@ -7046,6 +7046,9 @@
   </si>
   <si>
     <t>clade</t>
+  </si>
+  <si>
+    <t>host_sci_name</t>
   </si>
 </sst>
 </file>
@@ -7164,8 +7167,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7284,7 +7289,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7337,6 +7342,7 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7389,6 +7395,7 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7721,7 +7728,7 @@
   <dimension ref="A1:V901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="A1:V901"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -7759,7 +7766,7 @@
         <v>2341</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>0</v>
+        <v>2342</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1157</v>
